--- a/target/classes/001.xlsx
+++ b/target/classes/001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoTest\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED05863-9747-4228-8A43-5D4020A8EB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1584" windowWidth="17988" windowHeight="8124" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="浏览器" sheetId="1" r:id="rId1"/>
@@ -19,18 +13,7 @@
     <sheet name="交货地址" sheetId="2" r:id="rId4"/>
     <sheet name="付款方式" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -38,175 +21,149 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>浏览器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>浏览器驱动地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>E:\apache-tomcat-9.0.31\webapps\ROOT\exe\chromedriver.exe</t>
   </si>
   <si>
     <t>账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E://下载//学习//driver//chromedriver.exe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否滑动滚动条</t>
   </si>
   <si>
     <t>13411111111</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>规格型号</t>
+  </si>
+  <si>
+    <t>碳刷架11</t>
   </si>
   <si>
     <t>省</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>详细地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>付款方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>付款方式单选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务形式</t>
+  </si>
+  <si>
+    <t>零库存</t>
   </si>
   <si>
     <t>合同签订预付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同预付下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>付款前下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>付款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>验收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>质保期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>质保金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>补充说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>线下支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商承</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长协</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>排产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发货前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>货到发票挂账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1个月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否滑动滚动条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳刷架11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,41 +171,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,46 +522,328 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -346,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -381,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -555,248 +1101,253 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BAE706-A05F-4E72-9404-44C3C1F77F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452DBCDA-6875-4BDB-83E2-F82DB3E88B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB455F4E-C5EC-434C-9209-7A71C20D5676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13E4993-3022-4352-80AC-80B9687894EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2">
         <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2">
         <v>20</v>
@@ -804,7 +1355,7 @@
       <c r="N2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>